--- a/Employee_Reports28/Rizardo Villalobos Q0048.xlsx
+++ b/Employee_Reports28/Rizardo Villalobos Q0048.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,10 +28,7 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
   <fills count="4">
@@ -72,15 +69,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -569,56 +563,56 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
-          <t>VALID</t>
+          <t>NOT VALID</t>
         </is>
       </c>
       <c r="K3" s="3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>Endangered by Electricity A safety Training (SOPs)</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr"/>
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>06-Aug-2024</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t>06-Aug-2025</t>
         </is>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>-34</v>
-      </c>
-      <c r="I4" s="4" t="inlineStr">
-        <is>
-          <t>08-Sep-2025</t>
-        </is>
-      </c>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="H4" s="3" t="n">
+        <v>-42</v>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>16-Sep-2025</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
         <is>
           <t>NOT VALID</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr"/>
+      <c r="K4" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
